--- a/CaseAndFatalityDemographicsData/2021-11-19.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-11-19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\11.11.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\11.18.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B7D9C-F7CC-4E93-B2F1-BF55C53E0F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9294C00-440C-4213-98DE-A428849E5326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" firstSheet="1" activeTab="4" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.9608941677404896E-4</v>
+        <v>1.9422324574789823E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.9413412516107344E-4</v>
+        <v>2.9133486862184733E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1198,11 +1198,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.0644854053448373E-3</v>
+        <v>1.0682278516134403E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1210,11 +1210,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>8.8380301417446353E-3</v>
+        <v>9.0175078382952745E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1222,11 +1222,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>2051</v>
+        <v>2081</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.8727099557398175E-2</v>
+        <v>2.8869898171526871E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1234,11 +1234,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>5016</v>
+        <v>5083</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>7.0256036752759252E-2</v>
+        <v>7.0516911295469054E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1246,11 +1246,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>9550</v>
+        <v>9670</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.13376099501372626</v>
+        <v>0.13415277045586971</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -1258,11 +1258,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>7265</v>
+        <v>7372</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>0.10175640091881898</v>
+        <v>0.10227241197525042</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -1270,11 +1270,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>8586</v>
+        <v>8675</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12025883803014174</v>
+        <v>0.12034904691878694</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -1282,11 +1282,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>9131</v>
+        <v>9212</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.12789231889741723</v>
+        <v>0.12779889570211703</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1294,11 +1294,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>8649</v>
+        <v>8700</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12114124040562496</v>
+        <v>0.12069587414333675</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -1306,11 +1306,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>20406</v>
+        <v>20527</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.28581433133508882</v>
+        <v>0.28477289753336477</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -1330,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <v>71396</v>
+        <v>72082</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1368,11 +1368,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>29859</v>
+        <v>30176</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41821670681830914</v>
+        <v>0.42265673146955013</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1380,11 +1380,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>41536</v>
+        <v>41905</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58176928679477846</v>
+        <v>0.58693764356546585</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -1445,11 +1445,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1319</v>
+        <v>1333</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.8474424337497897E-2</v>
+        <v>1.849282761299631E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1457,11 +1457,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>7534</v>
+        <v>7630</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10552411899826321</v>
+        <v>0.10585166893260453</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1469,11 +1469,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>31202</v>
+        <v>31482</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.43702728444170541</v>
+        <v>0.43675258733109512</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -1481,11 +1481,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.938708050871197E-3</v>
+        <v>5.9376820842928883E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1493,11 +1493,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>30872</v>
+        <v>31164</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.43240517676060286</v>
+        <v>0.43234094503482146</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>6.3028741105944309E-4</v>
+        <v>6.242890041896729E-4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>71396</v>
+        <v>72082</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
